--- a/output/1Y_P85_1VAL-D.xlsx
+++ b/output/1Y_P85_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.042</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>623.3637</v>
       </c>
-      <c r="G2" s="1">
-        <v>623.3637</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1985</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.042</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1985</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E3" s="1">
+        <v>623.3637</v>
+      </c>
       <c r="F3" s="1">
         <v>631.1458</v>
       </c>
-      <c r="G3" s="1">
-        <v>1254.5095</v>
-      </c>
       <c r="H3" s="1">
-        <v>19773.578</v>
+        <v>9825.458199999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9425</v>
+        <v>9825.458199999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.042</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19773.578</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E4" s="1">
+        <v>1254.5095</v>
+      </c>
       <c r="F4" s="1">
         <v>626.1387999999999</v>
       </c>
-      <c r="G4" s="1">
-        <v>1880.6482</v>
-      </c>
       <c r="H4" s="1">
-        <v>29879.7393</v>
+        <v>19931.6462</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.9519</v>
+        <v>19931.6462</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9425</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29879.7393</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0036</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.743</v>
       </c>
+      <c r="E5" s="1">
+        <v>1880.6482</v>
+      </c>
       <c r="F5" s="1">
         <v>597.2645</v>
       </c>
-      <c r="G5" s="1">
-        <v>2477.9128</v>
-      </c>
       <c r="H5" s="1">
-        <v>41272.6107</v>
+        <v>31324.4533</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.1426</v>
+        <v>31324.4533</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.9519</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41272.6107</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0349</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E6" s="1">
+        <v>2477.9128</v>
+      </c>
       <c r="F6" s="1">
         <v>567.553</v>
       </c>
-      <c r="G6" s="1">
-        <v>3045.4658</v>
-      </c>
       <c r="H6" s="1">
-        <v>53381.2285</v>
+        <v>43433.1028</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.4178</v>
+        <v>43433.1028</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.1426</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53381.2285</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0411</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E7" s="1">
+        <v>3045.4658</v>
+      </c>
       <c r="F7" s="1">
         <v>566.104</v>
       </c>
-      <c r="G7" s="1">
-        <v>3611.5697</v>
-      </c>
       <c r="H7" s="1">
-        <v>63466.1148</v>
+        <v>53517.9699</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.6133</v>
+        <v>53517.9699</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.4178</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63466.1148</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0013</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E8" s="1">
+        <v>3611.5697</v>
+      </c>
       <c r="F8" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G8" s="1">
-        <v>4190.9843</v>
-      </c>
       <c r="H8" s="1">
-        <v>71956.2665</v>
+        <v>62008.1241</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.7025</v>
+        <v>62008.1241</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.6133</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71956.2665</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0206</v>
+        <v>-0.0238</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E9" s="1">
+        <v>4190.9843</v>
+      </c>
       <c r="F9" s="1">
         <v>593.581</v>
       </c>
-      <c r="G9" s="1">
-        <v>4784.5653</v>
-      </c>
       <c r="H9" s="1">
-        <v>80187.40059999999</v>
+        <v>70239.2202</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7204</v>
+        <v>70239.2202</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>16.7025</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.47</v>
       </c>
-      <c r="L9" s="1">
-        <v>1772.7864</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-8227.213599999999</v>
+        <v>1527.694</v>
       </c>
       <c r="O9" s="1">
-        <v>1772.7864</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81960.18700000001</v>
+        <v>-8472.306</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E10" s="1">
+        <v>4784.5653</v>
+      </c>
       <c r="F10" s="1">
-        <v>615.2503</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5399.8156</v>
+        <v>611.6404</v>
       </c>
       <c r="H10" s="1">
-        <v>91180.2058</v>
+        <v>80791.2127</v>
       </c>
       <c r="I10" s="1">
-        <v>90443.1966</v>
+        <v>1527.694</v>
       </c>
       <c r="J10" s="1">
-        <v>16.7493</v>
+        <v>82318.90670000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80381.9235</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8003</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10443.1966</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1329.5898</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>92509.79549999999</v>
+        <v>-10381.9235</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.006</v>
+        <v>0.0259</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E11" s="1">
+        <v>5396.2057</v>
+      </c>
       <c r="F11" s="1">
-        <v>590.722</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5990.5375</v>
+        <v>587.256</v>
       </c>
       <c r="H11" s="1">
-        <v>105355.5838</v>
+        <v>94903.0702</v>
       </c>
       <c r="I11" s="1">
-        <v>100886.3932</v>
+        <v>1145.7705</v>
       </c>
       <c r="J11" s="1">
-        <v>16.841</v>
+        <v>96048.8407</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90763.84699999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.8199</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10443.1966</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>886.3932</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106241.977</v>
+        <v>-10381.9235</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0364</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E12" s="1">
+        <v>5983.4618</v>
+      </c>
       <c r="F12" s="1">
-        <v>587.3828</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6577.9204</v>
+        <v>583.9365</v>
       </c>
       <c r="H12" s="1">
-        <v>116343.6775</v>
+        <v>105829.4885</v>
       </c>
       <c r="I12" s="1">
-        <v>111329.5898</v>
+        <v>763.847</v>
       </c>
       <c r="J12" s="1">
-        <v>16.9247</v>
+        <v>106593.3355</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101145.7705</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.9042</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10443.1966</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>443.1966</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116786.8741</v>
+        <v>-10381.9235</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0047</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E13" s="1">
+        <v>6567.3983</v>
+      </c>
       <c r="F13" s="1">
-        <v>580.0004</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7157.9207</v>
+        <v>576.5973</v>
       </c>
       <c r="H13" s="1">
-        <v>128214.1077</v>
+        <v>117636.5511</v>
       </c>
       <c r="I13" s="1">
-        <v>121772.7864</v>
+        <v>381.9235</v>
       </c>
       <c r="J13" s="1">
-        <v>17.0123</v>
+        <v>118018.4746</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111527.694</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.982</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10443.1966</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128214.1077</v>
+        <v>-10381.9235</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0113</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E14" s="1">
+        <v>7143.9956</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7157.9207</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6567.3983</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128894.1119</v>
       </c>
       <c r="I14" s="1">
-        <v>121772.7864</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.0123</v>
+        <v>128894.1119</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111527.694</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.6114</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>129145.3532</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>129145.3532</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129145.3532</v>
+        <v>118490.9696</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.06560000000000001</v>
+        <v>0.0068</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.042</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>623.3637</v>
       </c>
       <c r="G2" s="1">
-        <v>623.3637</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1985</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.042</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1985</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.8442</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>623.3637</v>
       </c>
       <c r="F3" s="1">
         <v>631.1458</v>
       </c>
       <c r="G3" s="1">
-        <v>1254.5095</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19773.578</v>
+        <v>9825.458199999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9425</v>
+        <v>9825.458199999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.042</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19773.578</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.9709</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1254.5095</v>
       </c>
       <c r="F4" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1880.6482</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29879.7393</v>
+        <v>19931.6462</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.9519</v>
+        <v>19931.6462</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9425</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29879.7393</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0036</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.743</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1880.6482</v>
       </c>
       <c r="F5" s="1">
         <v>520.8599</v>
       </c>
       <c r="G5" s="1">
-        <v>2401.5081</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31324.4533</v>
       </c>
       <c r="I5" s="1">
-        <v>38720.7574</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.1235</v>
+        <v>31324.4533</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28720.7574</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.2717</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8720.7574</v>
       </c>
-      <c r="O5" s="1">
-        <v>1279.2426</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41279.2426</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0351</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.6195</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2401.5081</v>
       </c>
       <c r="F6" s="1">
         <v>451.0543</v>
       </c>
       <c r="G6" s="1">
-        <v>2852.5625</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>42093.875</v>
       </c>
       <c r="I6" s="1">
-        <v>46668.1088</v>
+        <v>1279.2426</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3601</v>
+        <v>43373.1176</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36668.1088</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.2688</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7947.3514</v>
       </c>
-      <c r="O6" s="1">
-        <v>3331.8912</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53331.8912</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.04</v>
+        <v>0.0496</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.6646</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2852.5625</v>
       </c>
       <c r="F7" s="1">
         <v>561.7663</v>
       </c>
       <c r="G7" s="1">
-        <v>3414.3288</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50128.0801</v>
       </c>
       <c r="I7" s="1">
-        <v>56591.4865</v>
+        <v>3331.8912</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5747</v>
+        <v>53459.9713</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46591.4865</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.3332</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9923.377699999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>3408.5135</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63408.5135</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0012</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.2588</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3414.3288</v>
       </c>
       <c r="F8" s="1">
         <v>662.7157</v>
       </c>
       <c r="G8" s="1">
-        <v>4077.0445</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>58621.6355</v>
       </c>
       <c r="I8" s="1">
-        <v>68029.16409999999</v>
+        <v>3408.5135</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6859</v>
+        <v>62030.1489</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58029.1641</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.9958</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11437.6776</v>
       </c>
-      <c r="O8" s="1">
-        <v>1970.8359</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71970.83590000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0196</v>
+        <v>-0.0225</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.8469</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4077.0445</v>
       </c>
       <c r="F9" s="1">
         <v>696.3391</v>
       </c>
       <c r="G9" s="1">
-        <v>4773.3836</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>68329.6349</v>
       </c>
       <c r="I9" s="1">
-        <v>79760.31969999999</v>
+        <v>1970.8359</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7094</v>
+        <v>70300.47070000001</v>
       </c>
       <c r="K9" s="1">
+        <v>69760.31969999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>17.1105</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.47</v>
       </c>
-      <c r="L9" s="1">
-        <v>1724.5898</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-10006.5657</v>
+        <v>1444.2611</v>
       </c>
       <c r="O9" s="1">
-        <v>1964.2702</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81964.2702</v>
+        <v>-10286.8945</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0001</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.9739</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4773.3836</v>
       </c>
       <c r="F10" s="1">
         <v>556.5386</v>
       </c>
       <c r="G10" s="1">
-        <v>5329.9222</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>80602.401</v>
       </c>
       <c r="I10" s="1">
-        <v>89206.9497</v>
+        <v>1683.9414</v>
       </c>
       <c r="J10" s="1">
-        <v>16.737</v>
+        <v>82286.34239999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79206.9497</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.5935</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9446.629999999999</v>
       </c>
-      <c r="O10" s="1">
-        <v>2517.6401</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92517.6401</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.006</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.6787</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5329.9222</v>
       </c>
       <c r="F11" s="1">
         <v>356.0959</v>
       </c>
       <c r="G11" s="1">
-        <v>5686.0181</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>93737.3414</v>
       </c>
       <c r="I11" s="1">
-        <v>95502.2623</v>
+        <v>2237.3114</v>
       </c>
       <c r="J11" s="1">
-        <v>16.796</v>
+        <v>95974.6528</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>85502.2623</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.0419</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6295.3126</v>
       </c>
-      <c r="O11" s="1">
-        <v>6222.3276</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106222.3276</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0361</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.7792</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5686.0181</v>
       </c>
       <c r="F12" s="1">
         <v>533.239</v>
       </c>
       <c r="G12" s="1">
-        <v>6219.2571</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>100568.6018</v>
       </c>
       <c r="I12" s="1">
-        <v>104982.8251</v>
+        <v>5941.9988</v>
       </c>
       <c r="J12" s="1">
-        <v>16.8803</v>
+        <v>106510.6006</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94982.8251</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7046</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9480.5628</v>
       </c>
-      <c r="O12" s="1">
-        <v>6741.7647</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116741.7647</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0045</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.0055</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6219.2571</v>
       </c>
       <c r="F13" s="1">
         <v>480.0875</v>
       </c>
       <c r="G13" s="1">
-        <v>6699.3446</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>111400.5767</v>
       </c>
       <c r="I13" s="1">
-        <v>113627.0406</v>
+        <v>6461.436</v>
       </c>
       <c r="J13" s="1">
-        <v>16.9609</v>
+        <v>117862.0127</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>103627.0406</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6623</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8644.2155</v>
       </c>
-      <c r="O13" s="1">
-        <v>8097.5493</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128097.5493</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0107</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.1364</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6699.3446</v>
       </c>
       <c r="F14" s="1">
         <v>-6699.3446</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120871.5847</v>
       </c>
       <c r="I14" s="1">
-        <v>113627.0406</v>
+        <v>7817.2205</v>
       </c>
       <c r="J14" s="1">
-        <v>16.9609</v>
+        <v>128688.8053</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>103627.0406</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.4682</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>120871.5847</v>
       </c>
-      <c r="O14" s="1">
-        <v>128969.134</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128969.134</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.06610000000000001</v>
+        <v>0.0065</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.042</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>623.3637</v>
       </c>
       <c r="G2" s="1">
-        <v>623.3637</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1985</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.042</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1985</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.8442</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>623.3637</v>
       </c>
       <c r="F3" s="1">
         <v>631.1458</v>
       </c>
       <c r="G3" s="1">
-        <v>1254.5095</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19773.578</v>
+        <v>9825.458199999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9425</v>
+        <v>9825.458199999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.042</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19773.578</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.9709</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1254.5095</v>
       </c>
       <c r="F4" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1880.6482</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29879.7393</v>
+        <v>19931.6462</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.9519</v>
+        <v>19931.6462</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9425</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29879.7393</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0036</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.743</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1880.6482</v>
       </c>
       <c r="F5" s="1">
         <v>538.9313</v>
       </c>
       <c r="G5" s="1">
-        <v>2419.5796</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31324.4533</v>
       </c>
       <c r="I5" s="1">
-        <v>39023.3272</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.1281</v>
+        <v>31324.4533</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29023.3272</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.4326</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9023.3272</v>
       </c>
-      <c r="O5" s="1">
-        <v>976.6728000000001</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41277.674</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0351</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.6195</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2419.5796</v>
       </c>
       <c r="F6" s="1">
         <v>461.6515</v>
       </c>
       <c r="G6" s="1">
-        <v>2881.2311</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>42410.6327</v>
       </c>
       <c r="I6" s="1">
-        <v>47157.3958</v>
+        <v>976.6728000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3671</v>
+        <v>43387.3054</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37157.3958</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.357</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8134.0685</v>
       </c>
-      <c r="O6" s="1">
-        <v>2842.6042</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53345.1105</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0403</v>
+        <v>0.0499</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.6646</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2881.2311</v>
       </c>
       <c r="F7" s="1">
         <v>576.0624</v>
       </c>
       <c r="G7" s="1">
-        <v>3457.2935</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>50631.8735</v>
       </c>
       <c r="I7" s="1">
-        <v>57333.3083</v>
+        <v>2842.6042</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5833</v>
+        <v>53474.4778</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47333.3083</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.4282</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10175.9126</v>
       </c>
-      <c r="O7" s="1">
-        <v>2666.6917</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63421.7105</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0012</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.2588</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3457.2935</v>
       </c>
       <c r="F8" s="1">
         <v>681.4188</v>
       </c>
       <c r="G8" s="1">
-        <v>4138.7123</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>59359.3094</v>
       </c>
       <c r="I8" s="1">
-        <v>69093.7798</v>
+        <v>2666.6917</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6945</v>
+        <v>62026.0011</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59093.7798</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.0925</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11760.4715</v>
       </c>
-      <c r="O8" s="1">
-        <v>906.2202</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71965.0141</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0198</v>
+        <v>-0.0228</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.8469</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4138.7123</v>
       </c>
       <c r="F9" s="1">
         <v>647.3724999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4786.0849</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>80212.868</v>
+        <v>69363.1634</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>906.2202</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7151</v>
+        <v>70269.3836</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>16.9135</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.47</v>
       </c>
-      <c r="L9" s="1">
-        <v>1750.6753</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-9155.544900000001</v>
+        <v>1462.4352</v>
       </c>
       <c r="O9" s="1">
-        <v>1750.6753</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81963.5433</v>
+        <v>-9443.785</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.9739</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4786.0849</v>
       </c>
       <c r="F10" s="1">
         <v>651.6888</v>
       </c>
       <c r="G10" s="1">
-        <v>5437.7736</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>80816.8719</v>
       </c>
       <c r="I10" s="1">
-        <v>91061.70020000001</v>
+        <v>1462.4352</v>
       </c>
       <c r="J10" s="1">
-        <v>16.7461</v>
+        <v>82279.30710000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81061.70020000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.937</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11061.7002</v>
       </c>
-      <c r="O10" s="1">
-        <v>688.9752</v>
-      </c>
-      <c r="P10" s="1">
-        <v>92510.1335</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0059</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.6787</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5437.7736</v>
       </c>
       <c r="F11" s="1">
         <v>377.9007</v>
       </c>
       <c r="G11" s="1">
-        <v>5815.6743</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>95634.12519999999</v>
       </c>
       <c r="I11" s="1">
-        <v>97742.4926</v>
+        <v>400.735</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8067</v>
+        <v>96034.8602</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87742.4926</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.1357</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6680.7924</v>
       </c>
-      <c r="O11" s="1">
-        <v>4008.1828</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106288.4469</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0369</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.7792</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5815.6743</v>
       </c>
       <c r="F12" s="1">
         <v>561.4199</v>
       </c>
       <c r="G12" s="1">
-        <v>6377.0942</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>102861.8315</v>
       </c>
       <c r="I12" s="1">
-        <v>107724.0894</v>
+        <v>3719.9426</v>
       </c>
       <c r="J12" s="1">
-        <v>16.8923</v>
+        <v>106581.7741</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97724.0894</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8036</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9981.596799999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>4026.586</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116818.2514</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0046</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.0055</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6377.0942</v>
       </c>
       <c r="F13" s="1">
         <v>509.5877</v>
       </c>
       <c r="G13" s="1">
-        <v>6886.6819</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>114227.787</v>
       </c>
       <c r="I13" s="1">
-        <v>116899.4706</v>
+        <v>3738.3458</v>
       </c>
       <c r="J13" s="1">
-        <v>16.9747</v>
+        <v>117966.1328</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>106899.4706</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.763</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9175.3812</v>
       </c>
-      <c r="O13" s="1">
-        <v>4851.2047</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128206.8285</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0109</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.1364</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6886.6819</v>
       </c>
       <c r="F14" s="1">
         <v>-6886.6819</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124251.581</v>
       </c>
       <c r="I14" s="1">
-        <v>116899.4706</v>
+        <v>4562.9646</v>
       </c>
       <c r="J14" s="1">
-        <v>16.9747</v>
+        <v>128814.5456</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106899.4706</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5226</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124251.581</v>
       </c>
-      <c r="O14" s="1">
-        <v>129102.7858</v>
-      </c>
-      <c r="P14" s="1">
-        <v>129102.7858</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0659</v>
+        <v>0.0066</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.042</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>623.3637</v>
       </c>
       <c r="G2" s="1">
-        <v>623.3637</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1985</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.042</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1985</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.8442</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>623.3637</v>
       </c>
       <c r="F3" s="1">
         <v>631.1458</v>
       </c>
       <c r="G3" s="1">
-        <v>1254.5095</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19773.578</v>
+        <v>9825.458199999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9425</v>
+        <v>9825.458199999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.042</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19773.578</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.9709</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1254.5095</v>
       </c>
       <c r="F4" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1880.6482</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29879.7393</v>
+        <v>19931.6462</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.9519</v>
+        <v>19931.6462</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9425</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29879.7393</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0036</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.743</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1880.6482</v>
       </c>
       <c r="F5" s="1">
         <v>557.1233</v>
       </c>
       <c r="G5" s="1">
-        <v>2437.7715</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31324.4533</v>
       </c>
       <c r="I5" s="1">
-        <v>39327.915</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.1327</v>
+        <v>31324.4533</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29327.915</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.5946</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9327.915000000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>672.085</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41276.095</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.035</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.6195</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2437.7715</v>
       </c>
       <c r="F6" s="1">
         <v>472.4156</v>
       </c>
       <c r="G6" s="1">
-        <v>2910.1871</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42729.503</v>
       </c>
       <c r="I6" s="1">
-        <v>47651.6409</v>
+        <v>672.085</v>
       </c>
       <c r="J6" s="1">
-        <v>16.3741</v>
+        <v>43401.5879</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37651.6409</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.4451</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8323.725899999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>2348.3591</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53358.4092</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0406</v>
+        <v>0.0503</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.6646</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2910.1871</v>
       </c>
       <c r="F7" s="1">
         <v>590.6466</v>
       </c>
       <c r="G7" s="1">
-        <v>3500.8337</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>51140.7175</v>
       </c>
       <c r="I7" s="1">
-        <v>58085.1773</v>
+        <v>2348.3591</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5918</v>
+        <v>53489.0766</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48085.1773</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.5231</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10433.5363</v>
       </c>
-      <c r="O7" s="1">
-        <v>1914.8227</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63434.9733</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0012</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.2588</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3500.8337</v>
       </c>
       <c r="F8" s="1">
         <v>690.3622</v>
       </c>
       <c r="G8" s="1">
-        <v>4191.1959</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>71959.89939999999</v>
+        <v>60106.864</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1914.8227</v>
       </c>
       <c r="J8" s="1">
-        <v>16.7017</v>
+        <v>62021.6868</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.1388</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11914.8227</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71959.89939999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0201</v>
+        <v>-0.0231</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.8469</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4191.1959</v>
       </c>
       <c r="F9" s="1">
         <v>593.581</v>
       </c>
       <c r="G9" s="1">
-        <v>4784.7769</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>80190.94680000001</v>
+        <v>70242.76639999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7197</v>
+        <v>70242.76639999999</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>16.7017</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.47</v>
       </c>
-      <c r="L9" s="1">
-        <v>1772.8759</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-8227.124100000001</v>
+        <v>1480.8527</v>
       </c>
       <c r="O9" s="1">
-        <v>1772.8759</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81963.8226</v>
+        <v>-8519.147300000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.9739</v>
       </c>
       <c r="E10" s="1">
+        <v>4784.7769</v>
+      </c>
+      <c r="F10" s="1">
+        <v>676.3827</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>693.587</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5478.3639</v>
-      </c>
       <c r="H10" s="1">
-        <v>92506.55650000001</v>
+        <v>80794.7856</v>
       </c>
       <c r="I10" s="1">
-        <v>91772.8759</v>
+        <v>1480.8527</v>
       </c>
       <c r="J10" s="1">
-        <v>16.7519</v>
+        <v>82275.63830000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81480.8527</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0292</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11772.8759</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>92506.55650000001</v>
+        <v>-11480.8527</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0059</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.6787</v>
       </c>
       <c r="E11" s="1">
+        <v>5461.1596</v>
+      </c>
+      <c r="F11" s="1">
+        <v>487.6734</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>470.4691</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5948.833</v>
-      </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>96045.41409999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100090.1581</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8252</v>
+        <v>96045.41409999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90102.2836</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.4987</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-8317.2822</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1682.7178</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106304.8432</v>
+        <v>-8621.431</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0371</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.7792</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5948.833</v>
       </c>
       <c r="F12" s="1">
         <v>590.9050999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6539.738</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>105217.0087</v>
       </c>
       <c r="I12" s="1">
-        <v>110595.9775</v>
+        <v>1378.569</v>
       </c>
       <c r="J12" s="1">
-        <v>16.9114</v>
+        <v>106595.5777</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100608.103</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.9122</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10505.8194</v>
       </c>
-      <c r="O12" s="1">
-        <v>1176.8984</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116845.245</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0046</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.0055</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6539.738</v>
       </c>
       <c r="F13" s="1">
         <v>540.6334000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>7080.3715</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>117141.0957</v>
       </c>
       <c r="I13" s="1">
-        <v>120330.353</v>
+        <v>872.7496</v>
       </c>
       <c r="J13" s="1">
-        <v>16.9949</v>
+        <v>118013.8453</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110342.4786</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.8726</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9734.375599999999</v>
       </c>
-      <c r="O13" s="1">
-        <v>1442.5228</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128267.5529</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0112</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>18.1364</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7080.3715</v>
       </c>
       <c r="F14" s="1">
         <v>-7080.3715</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127746.1865</v>
       </c>
       <c r="I14" s="1">
-        <v>120330.353</v>
+        <v>1138.3741</v>
       </c>
       <c r="J14" s="1">
-        <v>16.9949</v>
+        <v>128884.5605</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110342.4786</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5843</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127746.1865</v>
       </c>
-      <c r="O14" s="1">
-        <v>129188.7093</v>
-      </c>
-      <c r="P14" s="1">
-        <v>129188.7093</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.06569999999999999</v>
+        <v>0.0068</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.042</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>623.3637</v>
       </c>
       <c r="G2" s="1">
-        <v>623.3637</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1985</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.042</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1985</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.8442</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>623.3637</v>
       </c>
       <c r="F3" s="1">
         <v>631.1458</v>
       </c>
       <c r="G3" s="1">
-        <v>1254.5095</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19773.578</v>
+        <v>9825.458199999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9425</v>
+        <v>9825.458199999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.042</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19773.578</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.008800000000000001</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.9709</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1254.5095</v>
       </c>
       <c r="F4" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1880.6482</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29879.7393</v>
+        <v>19931.6462</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.9519</v>
+        <v>19931.6462</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9425</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29879.7393</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0036</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.743</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1880.6482</v>
       </c>
       <c r="F5" s="1">
         <v>575.4362</v>
       </c>
       <c r="G5" s="1">
-        <v>2456.0844</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31324.4533</v>
       </c>
       <c r="I5" s="1">
-        <v>39634.5284</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.1373</v>
+        <v>31324.4533</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29634.5284</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7576</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9634.528399999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>365.4716</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41274.5054</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.035</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.6195</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2456.0844</v>
       </c>
       <c r="F6" s="1">
         <v>483.3482</v>
       </c>
       <c r="G6" s="1">
-        <v>2939.4326</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>43050.4938</v>
       </c>
       <c r="I6" s="1">
-        <v>48150.8819</v>
+        <v>365.4716</v>
       </c>
       <c r="J6" s="1">
-        <v>16.381</v>
+        <v>43415.9654</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38150.8819</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.5332</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8516.353499999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>1849.1181</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53371.7874</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0409</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.6646</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2939.4326</v>
       </c>
       <c r="F7" s="1">
         <v>605.5232</v>
       </c>
       <c r="G7" s="1">
-        <v>3544.9559</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>51654.6498</v>
       </c>
       <c r="I7" s="1">
-        <v>58847.2073</v>
+        <v>1849.1181</v>
       </c>
       <c r="J7" s="1">
-        <v>16.6003</v>
+        <v>53503.7679</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48847.2073</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.6179</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10696.3254</v>
       </c>
-      <c r="O7" s="1">
-        <v>1152.7927</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63448.302</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0012</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.2588</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3544.9559</v>
       </c>
       <c r="F8" s="1">
         <v>646.2089999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>4191.1649</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>71959.3676</v>
+        <v>60864.4106</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1152.7927</v>
       </c>
       <c r="J8" s="1">
-        <v>16.7018</v>
+        <v>62017.2033</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.9255</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11152.7927</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71959.3676</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0203</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.8469</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4191.1649</v>
       </c>
       <c r="F9" s="1">
         <v>593.581</v>
       </c>
       <c r="G9" s="1">
-        <v>4784.7459</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>80190.4277</v>
+        <v>70242.2473</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7198</v>
+        <v>70242.2473</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>16.7018</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.47</v>
       </c>
-      <c r="L9" s="1">
-        <v>1772.8628</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-8227.137199999999</v>
+        <v>1499.5163</v>
       </c>
       <c r="O9" s="1">
-        <v>1772.8628</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81963.2905</v>
+        <v>-8500.483700000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.9739</v>
       </c>
       <c r="E10" s="1">
+        <v>4784.7459</v>
+      </c>
+      <c r="F10" s="1">
+        <v>677.4823</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>693.5862</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5478.3321</v>
-      </c>
       <c r="H10" s="1">
-        <v>92506.0205</v>
+        <v>80794.26270000001</v>
       </c>
       <c r="I10" s="1">
-        <v>91772.8628</v>
+        <v>1499.5163</v>
       </c>
       <c r="J10" s="1">
-        <v>16.752</v>
+        <v>82293.77899999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81499.5163</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0332</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11772.8628</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>92506.0205</v>
+        <v>-11499.5163</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0059</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.6787</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5462.2282</v>
       </c>
       <c r="F11" s="1">
         <v>565.6525</v>
       </c>
       <c r="G11" s="1">
-        <v>6043.9846</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>106295.5566</v>
+        <v>96064.2072</v>
       </c>
       <c r="I11" s="1">
-        <v>101772.8628</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8387</v>
+        <v>96064.2072</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91499.5163</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.7513</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106295.5566</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.037</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.7792</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6027.8806</v>
       </c>
       <c r="F12" s="1">
         <v>562.455</v>
       </c>
       <c r="G12" s="1">
-        <v>6606.4396</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>116848.0967</v>
+        <v>106615.1249</v>
       </c>
       <c r="I12" s="1">
-        <v>111772.8628</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.9188</v>
+        <v>106615.1249</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101499.5163</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8383</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116848.0967</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0048</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.0055</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6590.3356</v>
       </c>
       <c r="F13" s="1">
         <v>555.3859</v>
       </c>
       <c r="G13" s="1">
-        <v>7161.8254</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>128284.0494</v>
+        <v>118047.4102</v>
       </c>
       <c r="I13" s="1">
-        <v>121772.8628</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.003</v>
+        <v>118047.4102</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111499.5163</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.9186</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128284.0494</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0113</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>18.1364</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7145.7215</v>
       </c>
       <c r="F14" s="1">
-        <v>-7161.8254</v>
+        <v>-7145.7215</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128925.251</v>
       </c>
       <c r="I14" s="1">
-        <v>121772.8628</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.003</v>
+        <v>128925.251</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111499.5163</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.6037</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>129215.8029</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>129215.8029</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129215.8029</v>
+        <v>128925.251</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.06560000000000001</v>
+        <v>0.0069</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>18.0875</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.0123</v>
+        <v>15.6114</v>
       </c>
       <c r="D3" s="1">
-        <v>16.9609</v>
+        <v>15.4682</v>
       </c>
       <c r="E3" s="1">
-        <v>16.9747</v>
+        <v>15.5226</v>
       </c>
       <c r="F3" s="1">
-        <v>16.9949</v>
+        <v>15.5843</v>
       </c>
       <c r="G3" s="1">
-        <v>17.003</v>
+        <v>15.6037</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1268</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0444</v>
+        <v>0.1292</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0427</v>
+        <v>0.1269</v>
       </c>
       <c r="E4" s="3">
-        <v>0.044</v>
+        <v>0.1282</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0448</v>
+        <v>0.1289</v>
       </c>
       <c r="G4" s="3">
-        <v>0.045</v>
+        <v>0.1294</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.0842</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0953</v>
+        <v>0.0861</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0949</v>
+        <v>0.0843</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0951</v>
+        <v>0.0851</v>
       </c>
       <c r="F5" s="3">
-        <v>0.09520000000000001</v>
+        <v>0.0856</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0953</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.2652</v>
       </c>
       <c r="C6" s="4">
-        <v>0.2529</v>
+        <v>1.2653</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2358</v>
+        <v>1.2639</v>
       </c>
       <c r="E6" s="4">
-        <v>0.2485</v>
+        <v>1.268</v>
       </c>
       <c r="F6" s="4">
-        <v>0.2566</v>
+        <v>1.2686</v>
       </c>
       <c r="G6" s="4">
-        <v>0.2593</v>
+        <v>1.2703</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1445</v>
+        <v>-0.0232</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1476</v>
+        <v>0.1426</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1473</v>
+        <v>0.1423</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1465</v>
+        <v>0.1413</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1458</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1772.7864</v>
+        <v>1527.694</v>
       </c>
       <c r="D8" s="1">
-        <v>1724.5898</v>
+        <v>1444.2611</v>
       </c>
       <c r="E8" s="1">
-        <v>1750.6753</v>
+        <v>1462.4352</v>
       </c>
       <c r="F8" s="1">
-        <v>1772.8759</v>
+        <v>1480.8527</v>
       </c>
       <c r="G8" s="1">
-        <v>1772.8628</v>
+        <v>1499.5163</v>
       </c>
     </row>
   </sheetData>
